--- a/xlsx/美国各州格言列表_intext.xlsx
+++ b/xlsx/美国各州格言列表_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <t>美国各州格言列表</t>
   </si>
@@ -143,9 +143,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓哥倫比亞特區</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E</t>
   </si>
   <si>
@@ -167,7 +164,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -233,25 +230,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E5%92%8C%E9%A0%98%E5%9C%B0%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份和領地列表</t>
+    <t>美国州份和领地列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9D%E7%B8%BD%E9%9D%A2%E7%A9%8D%E6%8E%92%E5%88%97%E7%9A%84%E7%BE%8E%E5%9C%8B%E5%B7%9E%E5%88%A5%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>依總面積排列的美國州別列表</t>
+    <t>依总面积排列的美国州别列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州首府列表</t>
+    <t>美国各州首府列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_governors%27_residences_in_the_United_States</t>
@@ -263,25 +257,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E5%B7%9E%E8%AD%B0%E6%9C%83%E5%A4%A7%E5%BB%88%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州州議會大廈列表</t>
+    <t>美国各州州议会大厦列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%AF%E9%82%A6%E9%A0%86%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份依加入聯邦順序排列列表</t>
+    <t>美国州份依加入联邦顺序排列列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E6%9C%80%E5%A4%A7%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州最大城市列表</t>
+    <t>美国各州最大城市列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E5%90%8D%E7%A8%B1%E8%A9%9E%E6%BA%90</t>
   </si>
   <si>
-    <t>美國各州名稱詞源</t>
+    <t>美国各州名称词源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8</t>
@@ -293,37 +287,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E4%BA%BA%E5%9D%87%E7%94%9F%E7%94%A2%E7%B8%BD%E9%A1%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州人均生產總額列表</t>
+    <t>美国各州人均生产总额列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州人口列表</t>
+    <t>美国各州人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份人口密度列表</t>
+    <t>美国州份人口密度列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E9%83%B5%E6%94%BF%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份郵政縮寫列表</t>
+    <t>美国州份邮政缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E6%99%82%E5%8D%80%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州時區列表</t>
+    <t>美国各州时区列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
@@ -1289,7 +1283,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1315,10 +1309,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -1344,10 +1338,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1373,10 +1367,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>4</v>
@@ -1402,10 +1396,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1431,10 +1425,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1460,10 +1454,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1489,10 +1483,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1518,10 +1512,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1547,10 +1541,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1576,10 +1570,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1605,10 +1599,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1634,10 +1628,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1663,10 +1657,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1692,10 +1686,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>3</v>
@@ -1721,10 +1715,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="G36" t="n">
         <v>9</v>
@@ -1750,10 +1744,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1779,10 +1773,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1808,10 +1802,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1837,10 +1831,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1866,10 +1860,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1895,10 +1889,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1924,10 +1918,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1953,10 +1947,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1982,10 +1976,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2011,10 +2005,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2040,10 +2034,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -2069,10 +2063,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2098,10 +2092,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2127,10 +2121,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2156,10 +2150,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2185,10 +2179,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2214,10 +2208,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -2243,10 +2237,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>103</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>107</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
